--- a/src/main/resources/templates/shipping-table.xlsx
+++ b/src/main/resources/templates/shipping-table.xlsx
@@ -1584,7 +1584,7 @@
     <t xml:space="preserve">С-1-46</t>
   </si>
   <si>
-    <t xml:space="preserve">  СМК-20034-КМД</t>
+    <t xml:space="preserve">СМК-20034-КМД</t>
   </si>
   <si>
     <t xml:space="preserve">ЖД Пристройка к производственному цеху в муниципии Кишинеу  на улице Мунчешть 801  отгрузка</t>
@@ -2964,7 +2964,7 @@
     <t xml:space="preserve">Ж-148</t>
   </si>
   <si>
-    <t xml:space="preserve">  СМК-20036-КМД</t>
+    <t xml:space="preserve">СМК-20036-КМД</t>
   </si>
   <si>
     <t xml:space="preserve">ВС1-1</t>
@@ -15989,9 +15989,9 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C655" activeCellId="0" sqref="C655"/>
+      <selection pane="bottomLeft" activeCell="C706" activeCellId="0" sqref="C706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/templates/shipping-table.xlsx
+++ b/src/main/resources/templates/shipping-table.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="сентябрь" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="октябрь" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ноябрь" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="декабрь" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1418">
   <si>
     <t xml:space="preserve">Сводная ведомость отгрузки продукции </t>
   </si>
@@ -3805,6 +3806,477 @@
   </si>
   <si>
     <t xml:space="preserve">РС1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМК 20014 КМД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПБ2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПБ2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПБ2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПБ2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧВТФ-3.00604-СБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контейнер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧВТФ-3.00604-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс5-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГС1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РС1-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рп-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рп-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РС1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РС1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОГ-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р3-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лт-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лоток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лт-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВС1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВС1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВС1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р4-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р4-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К4-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К6-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р9-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р9-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К5-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К2-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К2-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛМ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лестничный марш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р8-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К5-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛМ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3445-КМД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влаштування майданчика для зважування у русі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колона </t>
+  </si>
+  <si>
+    <t xml:space="preserve">К 1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабельний лоток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ог-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Огородження драбини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф 1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ш 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монтажний елемент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вг 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кл-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ме 5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  СМК-20043-КМД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ремонтная мастерская  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верткальная связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВС1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВС1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пд1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пд1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пд2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый путь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор прокладок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УК-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крановый упор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ш-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пр1-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SSM-20033-КМД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Склад  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вертик. связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вс1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вс1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вс1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вс1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рп3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рс3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т1-7</t>
   </si>
 </sst>
 </file>
@@ -4055,7 +4527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4245,6 +4717,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15988,8 +16468,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C706" activeCellId="0" sqref="C706"/>
     </sheetView>
@@ -28824,12 +29304,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D398" activeCellId="0" sqref="D398"/>
+      <selection pane="bottomLeft" activeCell="D441" activeCellId="0" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35275,8 +35755,472 @@
       </c>
       <c r="F406" s="15"/>
     </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B408" s="3"/>
+      <c r="C408" s="41" t="n">
+        <v>44161</v>
+      </c>
+      <c r="D408" s="41"/>
+      <c r="E408" s="41"/>
+      <c r="F408" s="41"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B409" s="5"/>
+      <c r="C409" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D409" s="27"/>
+      <c r="E409" s="27"/>
+      <c r="F409" s="27"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" s="5"/>
+      <c r="C410" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="D410" s="27"/>
+      <c r="E410" s="27"/>
+      <c r="F410" s="27"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" s="5"/>
+      <c r="C411" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B412" s="42"/>
+      <c r="C412" s="48"/>
+      <c r="D412" s="48"/>
+      <c r="E412" s="48"/>
+      <c r="F412" s="48"/>
+    </row>
+    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C413" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D413" s="11" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="E413" s="28" t="n">
+        <v>2108.8</v>
+      </c>
+      <c r="F413" s="15"/>
+    </row>
+    <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C414" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D414" s="11" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="E414" s="28" t="n">
+        <v>1054.4</v>
+      </c>
+      <c r="F414" s="15"/>
+    </row>
+    <row r="415" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C415" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" s="11" t="n">
+        <v>472.4</v>
+      </c>
+      <c r="E415" s="28" t="n">
+        <v>472.4</v>
+      </c>
+      <c r="F415" s="15"/>
+    </row>
+    <row r="416" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C416" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D416" s="11" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="E416" s="28" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="F416" s="15"/>
+    </row>
+    <row r="417" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C417" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" s="11" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="E417" s="28" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="F417" s="15"/>
+    </row>
+    <row r="418" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C418" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D418" s="11" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="E418" s="28" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="F418" s="15"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="3"/>
+      <c r="C420" s="41" t="n">
+        <v>44165</v>
+      </c>
+      <c r="D420" s="41"/>
+      <c r="E420" s="41"/>
+      <c r="F420" s="41"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" s="5"/>
+      <c r="C421" s="27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D421" s="27"/>
+      <c r="E421" s="27"/>
+      <c r="F421" s="27"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" s="5"/>
+      <c r="C422" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D422" s="27"/>
+      <c r="E422" s="27"/>
+      <c r="F422" s="27"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" s="5"/>
+      <c r="C423" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B424" s="42"/>
+      <c r="C424" s="48"/>
+      <c r="D424" s="48"/>
+      <c r="E424" s="48"/>
+      <c r="F424" s="48"/>
+    </row>
+    <row r="425" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C425" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D425" s="11" t="n">
+        <v>1087.75</v>
+      </c>
+      <c r="E425" s="28" t="n">
+        <v>2175.5</v>
+      </c>
+      <c r="F425" s="15"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" s="3"/>
+      <c r="C427" s="41" t="n">
+        <v>44159</v>
+      </c>
+      <c r="D427" s="41"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="41"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" s="5"/>
+      <c r="C428" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D428" s="27"/>
+      <c r="E428" s="27"/>
+      <c r="F428" s="27"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" s="5"/>
+      <c r="C429" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D429" s="27"/>
+      <c r="E429" s="27"/>
+      <c r="F429" s="27"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B431" s="42"/>
+      <c r="C431" s="48"/>
+      <c r="D431" s="48"/>
+      <c r="E431" s="48"/>
+      <c r="F431" s="48"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B432" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C432" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D432" s="25" t="n">
+        <v>1212.4</v>
+      </c>
+      <c r="E432" s="25" t="n">
+        <v>1212.4</v>
+      </c>
+      <c r="F432" s="15"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="25" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B433" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C433" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" s="25" t="n">
+        <v>1184.7</v>
+      </c>
+      <c r="E433" s="25" t="n">
+        <v>1184.7</v>
+      </c>
+      <c r="F433" s="15"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B434" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C434" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" s="25" t="n">
+        <v>1176.5</v>
+      </c>
+      <c r="E434" s="25" t="n">
+        <v>1176.5</v>
+      </c>
+      <c r="F434" s="15"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B435" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C435" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D435" s="25" t="n">
+        <v>1186.5</v>
+      </c>
+      <c r="E435" s="25" t="n">
+        <v>1186.5</v>
+      </c>
+      <c r="F435" s="15"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B436" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C436" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D436" s="25" t="n">
+        <v>1212.4</v>
+      </c>
+      <c r="E436" s="25" t="n">
+        <v>1212.4</v>
+      </c>
+      <c r="F436" s="15"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B437" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D437" s="25" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E437" s="25" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="F437" s="15"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B438" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D438" s="25" t="n">
+        <v>875.9</v>
+      </c>
+      <c r="E438" s="25" t="n">
+        <v>4379.5</v>
+      </c>
+      <c r="F438" s="15"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B439" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C439" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D439" s="25" t="n">
+        <v>880.8</v>
+      </c>
+      <c r="E439" s="25" t="n">
+        <v>880.8</v>
+      </c>
+      <c r="F439" s="15"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B440" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C440" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D440" s="25" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="E440" s="25" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="F440" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="181">
+  <mergeCells count="211">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -35458,6 +36402,36 @@
     <mergeCell ref="C387:F387"/>
     <mergeCell ref="A388:B388"/>
     <mergeCell ref="C388:F388"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="C409:F409"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="C410:F410"/>
+    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="C411:F411"/>
+    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="C420:F420"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="A422:B422"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="A423:B423"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="C424:F424"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="A428:B428"/>
+    <mergeCell ref="C428:F428"/>
+    <mergeCell ref="A429:B429"/>
+    <mergeCell ref="C429:F429"/>
+    <mergeCell ref="A430:B430"/>
+    <mergeCell ref="C430:F430"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="C431:F431"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -35467,4 +36441,6138 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F367"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="41" t="n">
+        <v>44159</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>2641.2</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>875.9</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>2627.7</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="E11" s="25" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="E13" s="25" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="E15" s="25" t="n">
+        <v>1647.1</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E16" s="25" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E17" s="25" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E18" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E19" s="25" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="25" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E20" s="25" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="25" t="n">
+        <v>72</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E21" s="25" t="n">
+        <v>3513.6</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E22" s="25" t="n">
+        <v>488</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E23" s="25" t="n">
+        <v>2928</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E24" s="25" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="25" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E29" s="25" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E30" s="25" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C31" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E31" s="25" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E32" s="25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="25" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E33" s="25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C34" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C35" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E35" s="25" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C36" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E36" s="25" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C37" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E37" s="25" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C38" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E38" s="25" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E39" s="25" t="n">
+        <v>189</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C40" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E40" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C41" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E41" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E42" s="25" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E43" s="25" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C44" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="25" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E44" s="25" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C45" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="E45" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="E46" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="25" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C47" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="E47" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="41" t="n">
+        <v>44168</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+    </row>
+    <row r="54" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E54" s="28" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C55" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E55" s="28" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E56" s="28" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C57" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E57" s="28" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E58" s="28" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C59" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E59" s="28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E60" s="28" t="n">
+        <v>777.6</v>
+      </c>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C61" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E61" s="28" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E62" s="28" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D63" s="11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E63" s="28" t="n">
+        <v>1049.1</v>
+      </c>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E64" s="28" t="n">
+        <v>53</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="11" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E65" s="28" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E66" s="28" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C67" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E67" s="28" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E68" s="28" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E69" s="28" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E70" s="28" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="E71" s="28" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C72" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E72" s="28" t="n">
+        <v>54</v>
+      </c>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C73" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E73" s="28" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E74" s="28" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C75" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="E75" s="28" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E76" s="28" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E77" s="28" t="n">
+        <v>41</v>
+      </c>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="E78" s="28" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="E79" s="28" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="E80" s="28" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E81" s="28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E82" s="28" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E83" s="28" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E84" s="28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F84" s="15"/>
+    </row>
+    <row r="85" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E85" s="28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F85" s="15"/>
+    </row>
+    <row r="86" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E86" s="28" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F86" s="15"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="41" t="n">
+        <v>44168</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="42"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>505.6</v>
+      </c>
+      <c r="E93" s="28" t="n">
+        <v>2022.4</v>
+      </c>
+      <c r="F93" s="15"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>589.3</v>
+      </c>
+      <c r="E94" s="28" t="n">
+        <v>589.3</v>
+      </c>
+      <c r="F94" s="15"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>589.3</v>
+      </c>
+      <c r="E95" s="28" t="n">
+        <v>1767.9</v>
+      </c>
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>556.8</v>
+      </c>
+      <c r="E96" s="28" t="n">
+        <v>556.8</v>
+      </c>
+      <c r="F96" s="15"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>450.7</v>
+      </c>
+      <c r="E97" s="28" t="n">
+        <v>450.7</v>
+      </c>
+      <c r="F97" s="15"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="E98" s="28" t="n">
+        <v>1177.2</v>
+      </c>
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="E99" s="28" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="E100" s="28" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C101" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="E101" s="28" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F101" s="15"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="11" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="E102" s="28" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="F102" s="15"/>
+    </row>
+    <row r="103" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E103" s="28" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="41" t="n">
+        <v>44184</v>
+      </c>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="42"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+    </row>
+    <row r="110" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C110" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E110" s="28" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E111" s="28" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>508.1</v>
+      </c>
+      <c r="E112" s="28" t="n">
+        <v>508.1</v>
+      </c>
+      <c r="F112" s="15"/>
+    </row>
+    <row r="113" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>508.1</v>
+      </c>
+      <c r="E113" s="28" t="n">
+        <v>508.1</v>
+      </c>
+      <c r="F113" s="15"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>505.6</v>
+      </c>
+      <c r="E114" s="28" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C115" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="11" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E115" s="28" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F115" s="15"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="E116" s="28" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="F116" s="15"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D117" s="11" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="E117" s="28" t="n">
+        <v>1868.3</v>
+      </c>
+      <c r="F117" s="15"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>589.3</v>
+      </c>
+      <c r="E118" s="28" t="n">
+        <v>1767.9</v>
+      </c>
+      <c r="F118" s="15"/>
+    </row>
+    <row r="119" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D119" s="11" t="n">
+        <v>589.3</v>
+      </c>
+      <c r="E119" s="28" t="n">
+        <v>4125.1</v>
+      </c>
+      <c r="F119" s="15"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E120" s="28" t="n">
+        <v>1830.8</v>
+      </c>
+      <c r="F120" s="15"/>
+    </row>
+    <row r="121" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E121" s="28" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="F121" s="15"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E122" s="28" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="F122" s="15"/>
+    </row>
+    <row r="123" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="E123" s="28" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="F123" s="15"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="E124" s="28" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="F124" s="15"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="11" t="n">
+        <v>397.1</v>
+      </c>
+      <c r="E125" s="28" t="n">
+        <v>397.1</v>
+      </c>
+      <c r="F125" s="15"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="41" t="n">
+        <v>44177</v>
+      </c>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="42"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" s="11" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="E132" s="28" t="n">
+        <v>5091.5</v>
+      </c>
+      <c r="F132" s="15"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>442</v>
+      </c>
+      <c r="E133" s="28" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="11" t="n">
+        <v>1880.8</v>
+      </c>
+      <c r="E134" s="28" t="n">
+        <v>1880.8</v>
+      </c>
+      <c r="F134" s="15"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" s="11" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="E135" s="28" t="n">
+        <v>2863.5</v>
+      </c>
+      <c r="F135" s="15"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="11" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="E136" s="28" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="F136" s="15"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="11" t="n">
+        <v>1295.6</v>
+      </c>
+      <c r="E137" s="28" t="n">
+        <v>1295.6</v>
+      </c>
+      <c r="F137" s="15"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="E138" s="28" t="n">
+        <v>1184.8</v>
+      </c>
+      <c r="F138" s="15"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="41" t="n">
+        <v>44182</v>
+      </c>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="41"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="42"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+    </row>
+    <row r="145" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>505.6</v>
+      </c>
+      <c r="E145" s="28" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="F145" s="15"/>
+    </row>
+    <row r="146" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" s="11" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="E146" s="28" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="F146" s="15"/>
+    </row>
+    <row r="147" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" s="11" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="E147" s="28" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="F147" s="15"/>
+    </row>
+    <row r="148" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" s="11" t="n">
+        <v>442</v>
+      </c>
+      <c r="E148" s="28" t="n">
+        <v>442</v>
+      </c>
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="E149" s="28" t="n">
+        <v>1334.5</v>
+      </c>
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D150" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E150" s="28" t="n">
+        <v>2746.2</v>
+      </c>
+      <c r="F150" s="15"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E151" s="28" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="F151" s="15"/>
+    </row>
+    <row r="152" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E152" s="28" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="F152" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="E153" s="28" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="F153" s="15"/>
+    </row>
+    <row r="154" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="11" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="E154" s="28" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="F154" s="15"/>
+    </row>
+    <row r="155" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" s="11" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="E155" s="28" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="F155" s="15"/>
+    </row>
+    <row r="156" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="E156" s="28" t="n">
+        <v>463.2</v>
+      </c>
+      <c r="F156" s="15"/>
+    </row>
+    <row r="157" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" s="11" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="E157" s="28" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="F157" s="15"/>
+    </row>
+    <row r="158" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E158" s="28" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F158" s="15"/>
+    </row>
+    <row r="159" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C159" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" s="11" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="E159" s="28" t="n">
+        <v>698.5</v>
+      </c>
+      <c r="F159" s="15"/>
+    </row>
+    <row r="160" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C160" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="11" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E160" s="28" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F160" s="15"/>
+    </row>
+    <row r="161" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" s="11" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="E161" s="28" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="F161" s="15"/>
+    </row>
+    <row r="162" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" s="11" t="n">
+        <v>441.7</v>
+      </c>
+      <c r="E162" s="28" t="n">
+        <v>441.7</v>
+      </c>
+      <c r="F162" s="15"/>
+    </row>
+    <row r="163" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" s="11" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="E163" s="28" t="n">
+        <v>2863.5</v>
+      </c>
+      <c r="F163" s="15"/>
+    </row>
+    <row r="164" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>954.5</v>
+      </c>
+      <c r="E164" s="28" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F164" s="15"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="41" t="n">
+        <v>44183</v>
+      </c>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="41"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="42"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+    </row>
+    <row r="171" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" s="11" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="E171" s="28" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="F171" s="15"/>
+    </row>
+    <row r="172" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="E172" s="28" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="F172" s="15"/>
+    </row>
+    <row r="173" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" s="11" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="E173" s="28" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="F173" s="15"/>
+    </row>
+    <row r="174" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" s="11" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="E174" s="28" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="F174" s="15"/>
+    </row>
+    <row r="175" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>324.9</v>
+      </c>
+      <c r="E175" s="28" t="n">
+        <v>324.9</v>
+      </c>
+      <c r="F175" s="15"/>
+    </row>
+    <row r="176" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" s="11" t="n">
+        <v>230</v>
+      </c>
+      <c r="E176" s="28" t="n">
+        <v>230</v>
+      </c>
+      <c r="F176" s="15"/>
+    </row>
+    <row r="177" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C177" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" s="11" t="n">
+        <v>654.2</v>
+      </c>
+      <c r="E177" s="28" t="n">
+        <v>654.2</v>
+      </c>
+      <c r="F177" s="15"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="41" t="n">
+        <v>44187</v>
+      </c>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="41"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="42"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+    </row>
+    <row r="184" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D184" s="11" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="E184" s="28" t="n">
+        <v>1868.3</v>
+      </c>
+      <c r="F184" s="15"/>
+    </row>
+    <row r="185" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" s="11" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="E185" s="28" t="n">
+        <v>1830.8</v>
+      </c>
+      <c r="F185" s="15"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="41" t="n">
+        <v>44177</v>
+      </c>
+      <c r="D187" s="41"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="41"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="27" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="42"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>1265.8</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>1265.8</v>
+      </c>
+      <c r="F192" s="15"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F193" s="15"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="F194" s="15"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F195" s="15"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F196" s="15"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F197" s="15"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F198" s="15"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F199" s="15"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1368.1</v>
+      </c>
+      <c r="F200" s="15"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>1358.6</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>1358.6</v>
+      </c>
+      <c r="F201" s="15"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F202" s="15"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="F203" s="15"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="25" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B204" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C204" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" s="25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E204" s="25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F204" s="15"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="25" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C205" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" s="25" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E205" s="25" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F205" s="15"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C206" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" s="25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E206" s="25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F206" s="15"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="25" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C207" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D207" s="25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E207" s="25" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F207" s="15"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="25" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C208" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D208" s="25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E208" s="25" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F208" s="15"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="25" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C209" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D209" s="25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E209" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F209" s="15"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="25" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C210" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="E210" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F210" s="15"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="25" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C211" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" s="25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E211" s="25" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F211" s="15"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C212" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" s="25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E212" s="25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F212" s="15"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="25" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C213" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" s="25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E213" s="25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F213" s="15"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="41" t="n">
+        <v>44167</v>
+      </c>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="27" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="42"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="48"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C220" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" s="25" t="n">
+        <v>614.4</v>
+      </c>
+      <c r="E220" s="25" t="n">
+        <v>614.4</v>
+      </c>
+      <c r="F220" s="15"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="E221" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="F221" s="15"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C222" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" s="25" t="n">
+        <v>616.6</v>
+      </c>
+      <c r="E222" s="25" t="n">
+        <v>616.6</v>
+      </c>
+      <c r="F222" s="15"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C223" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="E223" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C224" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="E224" s="25" t="n">
+        <v>615.1</v>
+      </c>
+      <c r="F224" s="15"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" s="25" t="n">
+        <v>612.9</v>
+      </c>
+      <c r="E225" s="25" t="n">
+        <v>612.9</v>
+      </c>
+      <c r="F225" s="15"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" s="25" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="E226" s="25" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="F226" s="15"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="25" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="E227" s="25" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="F227" s="15"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B228" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" s="25" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="E228" s="25" t="n">
+        <v>569</v>
+      </c>
+      <c r="F228" s="15"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B229" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" s="25" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="E229" s="25" t="n">
+        <v>569</v>
+      </c>
+      <c r="F229" s="15"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="25" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B230" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C230" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" s="25" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="E230" s="25" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="F230" s="15"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B231" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" s="25" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="E231" s="25" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="F231" s="15"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" s="25" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="E232" s="25" t="n">
+        <v>1463</v>
+      </c>
+      <c r="F232" s="15"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B233" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" s="25" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="E233" s="25" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="F233" s="15"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" s="25" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="E234" s="25" t="n">
+        <v>1227.2</v>
+      </c>
+      <c r="F234" s="15"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="B235" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C235" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D235" s="25" t="n">
+        <v>55</v>
+      </c>
+      <c r="E235" s="25" t="n">
+        <v>440</v>
+      </c>
+      <c r="F235" s="15"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="B236" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C236" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" s="25" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="E236" s="25" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="F236" s="15"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="25" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B237" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C237" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" s="25" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="E237" s="25" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="F237" s="15"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B238" s="25" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C238" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" s="25" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E238" s="25" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="F238" s="15"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B239" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C239" s="25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D239" s="25" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E239" s="25" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="F239" s="15"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" s="25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D240" s="25" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E240" s="25" t="n">
+        <v>243.2</v>
+      </c>
+      <c r="F240" s="15"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C241" s="25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D241" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E241" s="25" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F241" s="15"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B242" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C242" s="25" t="n">
+        <v>48</v>
+      </c>
+      <c r="D242" s="25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E242" s="25" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F242" s="15"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="C243" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D243" s="25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E243" s="25" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="F243" s="15"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="25" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="C244" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D244" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E244" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F244" s="15"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="25" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="C245" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D245" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E245" s="25" t="n">
+        <v>160</v>
+      </c>
+      <c r="F245" s="15"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C246" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D246" s="25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E246" s="25" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F246" s="15"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="25" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C247" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D247" s="25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E247" s="25" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F247" s="15"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C248" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" s="25" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E248" s="25" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F248" s="15"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C249" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" s="25" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E249" s="25" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="F249" s="15"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C250" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" s="25" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E250" s="25" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F250" s="15"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C251" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" s="25" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="E251" s="25" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="F251" s="15"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C252" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" s="25" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E252" s="25" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F252" s="15"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="25" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" s="25" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E253" s="25" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F253" s="15"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="25" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C254" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" s="25" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="E254" s="25" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="F254" s="15"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C255" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" s="25" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E255" s="25" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F255" s="15"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C256" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" s="25" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="E256" s="25" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="F256" s="15"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C257" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" s="25" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="E257" s="25" t="n">
+        <v>434.2</v>
+      </c>
+      <c r="F257" s="15"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C258" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" s="25" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="E258" s="25" t="n">
+        <v>631.4</v>
+      </c>
+      <c r="F258" s="15"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C259" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" s="25" t="n">
+        <v>726.8</v>
+      </c>
+      <c r="E259" s="25" t="n">
+        <v>726.8</v>
+      </c>
+      <c r="F259" s="15"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C260" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" s="25" t="n">
+        <v>726.8</v>
+      </c>
+      <c r="E260" s="25" t="n">
+        <v>726.8</v>
+      </c>
+      <c r="F260" s="15"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C261" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D261" s="25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E261" s="25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F261" s="15"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C262" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="D262" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E262" s="25" t="n">
+        <v>32</v>
+      </c>
+      <c r="F262" s="15"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C263" s="25" t="n">
+        <v>26</v>
+      </c>
+      <c r="D263" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E263" s="25" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F263" s="15"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="25" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C264" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D264" s="25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E264" s="25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F264" s="15"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="25" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C265" s="25" t="n">
+        <v>80</v>
+      </c>
+      <c r="D265" s="25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E265" s="25" t="n">
+        <v>48</v>
+      </c>
+      <c r="F265" s="15"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="3"/>
+      <c r="C267" s="41" t="n">
+        <v>44168</v>
+      </c>
+      <c r="D267" s="41"/>
+      <c r="E267" s="41"/>
+      <c r="F267" s="41"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="27" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27"/>
+      <c r="F268" s="27"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D269" s="27"/>
+      <c r="E269" s="27"/>
+      <c r="F269" s="27"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" s="42"/>
+      <c r="C271" s="48"/>
+      <c r="D271" s="48"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
+    </row>
+    <row r="272" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" s="11" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E272" s="28" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="F272" s="15"/>
+    </row>
+    <row r="273" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" s="11" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E273" s="28" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F273" s="15"/>
+    </row>
+    <row r="274" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" s="11" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E274" s="28" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F274" s="15"/>
+    </row>
+    <row r="275" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D275" s="11" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E275" s="28" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F275" s="15"/>
+    </row>
+    <row r="276" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" s="11" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E276" s="28" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F276" s="15"/>
+    </row>
+    <row r="277" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E277" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F277" s="15"/>
+    </row>
+    <row r="278" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E278" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F278" s="15"/>
+    </row>
+    <row r="279" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E279" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F279" s="15"/>
+    </row>
+    <row r="280" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E280" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F280" s="15"/>
+    </row>
+    <row r="281" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D281" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E281" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F281" s="15"/>
+    </row>
+    <row r="282" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E282" s="28" t="n">
+        <v>114</v>
+      </c>
+      <c r="F282" s="15"/>
+    </row>
+    <row r="283" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D283" s="11" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E283" s="28" t="n">
+        <v>226</v>
+      </c>
+      <c r="F283" s="15"/>
+    </row>
+    <row r="284" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D284" s="11" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E284" s="28" t="n">
+        <v>226</v>
+      </c>
+      <c r="F284" s="15"/>
+    </row>
+    <row r="285" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D285" s="11" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E285" s="28" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="F285" s="15"/>
+    </row>
+    <row r="286" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D286" s="11" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E286" s="28" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="F286" s="15"/>
+    </row>
+    <row r="287" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C287" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" s="11" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="E287" s="28" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="F287" s="15"/>
+    </row>
+    <row r="288" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C288" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" s="11" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="E288" s="28" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F288" s="15"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" s="3"/>
+      <c r="C290" s="41" t="n">
+        <v>44168</v>
+      </c>
+      <c r="D290" s="41"/>
+      <c r="E290" s="41"/>
+      <c r="F290" s="41"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D291" s="27"/>
+      <c r="E291" s="27"/>
+      <c r="F291" s="27"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D292" s="27"/>
+      <c r="E292" s="27"/>
+      <c r="F292" s="27"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="42"/>
+      <c r="C294" s="48"/>
+      <c r="D294" s="48"/>
+      <c r="E294" s="48"/>
+      <c r="F294" s="48"/>
+    </row>
+    <row r="295" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C295" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" s="11" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E295" s="28" t="n">
+        <v>2641.2</v>
+      </c>
+      <c r="F295" s="15"/>
+    </row>
+    <row r="296" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" s="11" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E296" s="28" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="F296" s="15"/>
+    </row>
+    <row r="297" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" s="11" t="n">
+        <v>875.9</v>
+      </c>
+      <c r="E297" s="28" t="n">
+        <v>2627.7</v>
+      </c>
+      <c r="F297" s="15"/>
+    </row>
+    <row r="298" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" s="11" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="E298" s="28" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="F298" s="15"/>
+    </row>
+    <row r="299" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C299" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" s="11" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="E299" s="28" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="F299" s="15"/>
+    </row>
+    <row r="300" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D300" s="11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E300" s="28" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="F300" s="15"/>
+    </row>
+    <row r="301" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D301" s="11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E301" s="28" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="F301" s="15"/>
+    </row>
+    <row r="302" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" s="11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E302" s="28" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F302" s="15"/>
+    </row>
+    <row r="303" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" s="11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E303" s="28" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F303" s="15"/>
+    </row>
+    <row r="304" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D304" s="11" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E304" s="28" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="F304" s="15"/>
+    </row>
+    <row r="305" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D305" s="11" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E305" s="28" t="n">
+        <v>3513.6</v>
+      </c>
+      <c r="F305" s="15"/>
+    </row>
+    <row r="306" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D306" s="11" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E306" s="28" t="n">
+        <v>488</v>
+      </c>
+      <c r="F306" s="15"/>
+    </row>
+    <row r="307" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D307" s="11" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="E307" s="28" t="n">
+        <v>2928</v>
+      </c>
+      <c r="F307" s="15"/>
+    </row>
+    <row r="308" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D308" s="11" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E308" s="28" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="F308" s="15"/>
+    </row>
+    <row r="309" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D309" s="11" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E309" s="28" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="F309" s="15"/>
+    </row>
+    <row r="310" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="11" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E310" s="28" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F310" s="15"/>
+    </row>
+    <row r="311" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="11" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E311" s="28" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F311" s="15"/>
+    </row>
+    <row r="312" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C312" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E312" s="28" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F312" s="15"/>
+    </row>
+    <row r="313" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C313" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E313" s="28" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F313" s="15"/>
+    </row>
+    <row r="314" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C314" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E314" s="28" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F314" s="15"/>
+    </row>
+    <row r="315" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C315" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D315" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E315" s="28" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F315" s="15"/>
+    </row>
+    <row r="316" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C316" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" s="11" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E316" s="28" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F316" s="15"/>
+    </row>
+    <row r="317" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C317" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" s="11" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E317" s="28" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F317" s="15"/>
+    </row>
+    <row r="318" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C318" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E318" s="28" t="n">
+        <v>18</v>
+      </c>
+      <c r="F318" s="15"/>
+    </row>
+    <row r="319" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C319" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" s="11" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E319" s="28" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F319" s="15"/>
+    </row>
+    <row r="320" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C320" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D320" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E320" s="28" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="F320" s="15"/>
+    </row>
+    <row r="321" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C321" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" s="11" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E321" s="28" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F321" s="15"/>
+    </row>
+    <row r="322" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C322" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D322" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E322" s="28" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F322" s="15"/>
+    </row>
+    <row r="323" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C323" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D323" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E323" s="28" t="n">
+        <v>189</v>
+      </c>
+      <c r="F323" s="15"/>
+    </row>
+    <row r="324" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="11" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C324" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" s="11" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E324" s="28" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F324" s="15"/>
+    </row>
+    <row r="325" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C325" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" s="11" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E325" s="28" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F325" s="15"/>
+    </row>
+    <row r="326" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C326" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" s="11" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E326" s="28" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F326" s="15"/>
+    </row>
+    <row r="327" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C327" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D327" s="11" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E327" s="28" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="F327" s="15"/>
+    </row>
+    <row r="328" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C328" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" s="11" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E328" s="28" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F328" s="15"/>
+    </row>
+    <row r="329" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C329" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E329" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F329" s="15"/>
+    </row>
+    <row r="330" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C330" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E330" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F330" s="15"/>
+    </row>
+    <row r="331" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C331" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E331" s="28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F331" s="15"/>
+    </row>
+    <row r="332" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C332" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" s="11" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="E332" s="28" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="F332" s="15"/>
+    </row>
+    <row r="333" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C333" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D333" s="11" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="E333" s="28" t="n">
+        <v>1647.1</v>
+      </c>
+      <c r="F333" s="15"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" s="3"/>
+      <c r="C335" s="41" t="n">
+        <v>44175</v>
+      </c>
+      <c r="D335" s="41"/>
+      <c r="E335" s="41"/>
+      <c r="F335" s="41"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="C336" s="27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D336" s="27"/>
+      <c r="E336" s="27"/>
+      <c r="F336" s="27"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D337" s="27"/>
+      <c r="E337" s="27"/>
+      <c r="F337" s="27"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B339" s="42"/>
+      <c r="C339" s="48"/>
+      <c r="D339" s="48"/>
+      <c r="E339" s="48"/>
+      <c r="F339" s="48"/>
+    </row>
+    <row r="340" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C340" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" s="11" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="E340" s="28" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="F340" s="15"/>
+    </row>
+    <row r="341" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C341" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" s="11" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="E341" s="28" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="F341" s="15"/>
+    </row>
+    <row r="342" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C342" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" s="11" t="n">
+        <v>369</v>
+      </c>
+      <c r="E342" s="28" t="n">
+        <v>369</v>
+      </c>
+      <c r="F342" s="15"/>
+    </row>
+    <row r="343" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C343" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" s="11" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="E343" s="28" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="F343" s="15"/>
+    </row>
+    <row r="344" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C344" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" s="11" t="n">
+        <v>400.6</v>
+      </c>
+      <c r="E344" s="28" t="n">
+        <v>400.6</v>
+      </c>
+      <c r="F344" s="15"/>
+    </row>
+    <row r="345" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C345" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D345" s="11" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E345" s="28" t="n">
+        <v>1760.8</v>
+      </c>
+      <c r="F345" s="15"/>
+    </row>
+    <row r="346" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D346" s="11" t="n">
+        <v>880.4</v>
+      </c>
+      <c r="E346" s="28" t="n">
+        <v>2641.2</v>
+      </c>
+      <c r="F346" s="15"/>
+    </row>
+    <row r="347" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D347" s="11" t="n">
+        <v>875.9</v>
+      </c>
+      <c r="E347" s="28" t="n">
+        <v>3503.6</v>
+      </c>
+      <c r="F347" s="15"/>
+    </row>
+    <row r="348" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C348" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" s="11" t="n">
+        <v>880.8</v>
+      </c>
+      <c r="E348" s="28" t="n">
+        <v>880.8</v>
+      </c>
+      <c r="F348" s="15"/>
+    </row>
+    <row r="349" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C349" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" s="11" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="E349" s="28" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="F349" s="15"/>
+    </row>
+    <row r="350" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C350" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" s="11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E350" s="28" t="n">
+        <v>89</v>
+      </c>
+      <c r="F350" s="15"/>
+    </row>
+    <row r="351" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C351" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" s="11" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="E351" s="28" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="F351" s="15"/>
+    </row>
+    <row r="352" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C352" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" s="11" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="E352" s="28" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="F352" s="15"/>
+    </row>
+    <row r="353" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C353" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D353" s="11" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="E353" s="28" t="n">
+        <v>335.2</v>
+      </c>
+      <c r="F353" s="15"/>
+    </row>
+    <row r="354" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C354" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" s="11" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E354" s="28" t="n">
+        <v>355</v>
+      </c>
+      <c r="F354" s="15"/>
+    </row>
+    <row r="355" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C355" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D355" s="11" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E355" s="28" t="n">
+        <v>355</v>
+      </c>
+      <c r="F355" s="15"/>
+    </row>
+    <row r="356" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C356" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D356" s="11" t="n">
+        <v>83</v>
+      </c>
+      <c r="E356" s="28" t="n">
+        <v>332</v>
+      </c>
+      <c r="F356" s="15"/>
+    </row>
+    <row r="357" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C357" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="D357" s="11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E357" s="28" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="F357" s="15"/>
+    </row>
+    <row r="358" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C358" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D358" s="11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E358" s="28" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F358" s="15"/>
+    </row>
+    <row r="359" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C359" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D359" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F359" s="15"/>
+    </row>
+    <row r="360" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C360" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D360" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E360" s="28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F360" s="15"/>
+    </row>
+    <row r="361" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C361" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D361" s="11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E361" s="28" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F361" s="15"/>
+    </row>
+    <row r="362" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C362" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D362" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E362" s="28" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F362" s="15"/>
+    </row>
+    <row r="363" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C363" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="D363" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E363" s="28" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="F363" s="15"/>
+    </row>
+    <row r="364" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C364" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="D364" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E364" s="28" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="F364" s="15"/>
+    </row>
+    <row r="365" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C365" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D365" s="11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E365" s="28" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F365" s="15"/>
+    </row>
+    <row r="366" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C366" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="D366" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E366" s="28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F366" s="15"/>
+    </row>
+    <row r="367" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C367" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D367" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E367" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F367" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="131">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:F144"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:F167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:F168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:F169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:F170"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:F181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:F217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="C268:F268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="C269:F269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:F270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:F271"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="C291:F291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="C335:F335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="C337:F337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="C338:F338"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="C339:F339"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/templates/shipping-table.xlsx
+++ b/src/main/resources/templates/shipping-table.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1417">
   <si>
     <t xml:space="preserve">Сводная ведомость отгрузки продукции </t>
   </si>
@@ -1444,7 +1444,7 @@
     <t xml:space="preserve">СТР-1</t>
   </si>
   <si>
-    <t xml:space="preserve">27-4-1-КМД БЯЗ</t>
+    <t xml:space="preserve">27/4-1-КМД-БЯЗ</t>
   </si>
   <si>
     <t xml:space="preserve">Завальная яма</t>
@@ -4177,7 +4177,7 @@
     <t xml:space="preserve">Ме 5-1</t>
   </si>
   <si>
-    <t xml:space="preserve">  СМК-20043-КМД</t>
+    <t xml:space="preserve">СМК-20043-КМД</t>
   </si>
   <si>
     <t xml:space="preserve">  Ремонтная мастерская  </t>
@@ -4235,9 +4235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Пр1-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SSM-20033-КМД</t>
   </si>
   <si>
     <t xml:space="preserve">  Склад  </t>
@@ -4527,7 +4524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4724,10 +4721,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4808,9 +4801,9 @@
   <dimension ref="A1:F698"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C636" activeCellId="3" sqref="C4 C291 C336 C636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16471,7 +16464,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C706" activeCellId="0" sqref="C706"/>
+      <selection pane="bottomLeft" activeCell="C706" activeCellId="3" sqref="C4 C291 C336 C706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29309,7 +29302,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D441" activeCellId="0" sqref="D441"/>
+      <selection pane="bottomLeft" activeCell="D441" activeCellId="3" sqref="C4 C291 C336 D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36450,11 +36443,11 @@
   </sheetPr>
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4 C291 C336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -36467,22 +36460,22 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41128,7 +41121,7 @@
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="27" t="s">
-        <v>1404</v>
+        <v>1240</v>
       </c>
       <c r="D291" s="27"/>
       <c r="E291" s="27"/>
@@ -41140,7 +41133,7 @@
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D292" s="27"/>
       <c r="E292" s="27"/>
@@ -41889,7 +41882,7 @@
       </c>
       <c r="B336" s="5"/>
       <c r="C336" s="27" t="s">
-        <v>1404</v>
+        <v>1240</v>
       </c>
       <c r="D336" s="27"/>
       <c r="E336" s="27"/>
@@ -41901,7 +41894,7 @@
       </c>
       <c r="B337" s="5"/>
       <c r="C337" s="27" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D337" s="27"/>
       <c r="E337" s="27"/>
@@ -41931,7 +41924,7 @@
     </row>
     <row r="340" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>96</v>
@@ -41949,7 +41942,7 @@
     </row>
     <row r="341" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="11" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>96</v>
@@ -41967,7 +41960,7 @@
     </row>
     <row r="342" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>96</v>
@@ -42003,7 +41996,7 @@
     </row>
     <row r="344" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="11" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>96</v>
@@ -42114,7 +42107,7 @@
         <v>1151</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C350" s="11" t="n">
         <v>1</v>
@@ -42132,7 +42125,7 @@
         <v>1152</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C351" s="11" t="n">
         <v>1</v>
@@ -42150,7 +42143,7 @@
         <v>1190</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C352" s="11" t="n">
         <v>1</v>
@@ -42165,10 +42158,10 @@
     </row>
     <row r="353" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="11" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C353" s="11" t="n">
         <v>4</v>
@@ -42183,10 +42176,10 @@
     </row>
     <row r="354" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="11" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C354" s="11" t="n">
         <v>2</v>
@@ -42201,10 +42194,10 @@
     </row>
     <row r="355" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="11" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C355" s="11" t="n">
         <v>2</v>
@@ -42219,10 +42212,10 @@
     </row>
     <row r="356" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C356" s="11" t="n">
         <v>4</v>
@@ -42237,7 +42230,7 @@
     </row>
     <row r="357" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>416</v>
@@ -42255,7 +42248,7 @@
     </row>
     <row r="358" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>546</v>
@@ -42381,7 +42374,7 @@
     </row>
     <row r="365" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="11" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>801</v>

--- a/src/main/resources/templates/shipping-table.xlsx
+++ b/src/main/resources/templates/shipping-table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="460">
   <si>
     <t xml:space="preserve">Сводная ведомость отгрузки продукции </t>
   </si>
@@ -1475,7 +1475,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,8 +1488,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1539,6 +1545,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1569,7 +1582,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1638,6 +1651,54 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1664,7 +1725,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -9482,10 +9543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A211" activeCellId="0" sqref="A211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H231" activeCellId="0" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12528,7 +12589,7 @@
       <c r="F194" s="13"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -12540,7 +12601,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>8</v>
       </c>
@@ -12552,7 +12613,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>10</v>
       </c>
@@ -12564,7 +12625,7 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>12</v>
       </c>
@@ -12576,7 +12637,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
         <v>14</v>
       </c>
@@ -12586,527 +12647,598 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>99.01</v>
+        <v>390.11</v>
       </c>
       <c r="E201" s="12" t="n">
-        <v>198.02</v>
+        <v>8972.53</v>
       </c>
       <c r="F201" s="13"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>101.94</v>
+        <v>389.51</v>
       </c>
       <c r="E202" s="12" t="n">
-        <v>203.88</v>
+        <v>2337.06</v>
       </c>
       <c r="F202" s="13"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="11" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>96.08</v>
+        <v>390.05</v>
       </c>
       <c r="E203" s="12" t="n">
-        <v>192.16</v>
+        <v>5460.7</v>
       </c>
       <c r="F203" s="13"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="11" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="C204" s="11" t="n">
         <v>2</v>
       </c>
       <c r="D204" s="11" t="n">
+        <v>389.45</v>
+      </c>
+      <c r="E204" s="12" t="n">
+        <v>778.9</v>
+      </c>
+      <c r="F204" s="13"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5" t="n">
+        <v>44280</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" s="9"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+    </row>
+    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" s="11" t="n">
         <v>99.01</v>
       </c>
-      <c r="E204" s="12" t="n">
+      <c r="E211" s="12" t="n">
         <v>198.02</v>
       </c>
-      <c r="F204" s="13"/>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="11" t="s">
+      <c r="F211" s="13"/>
+    </row>
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C212" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" s="11" t="n">
+        <v>101.94</v>
+      </c>
+      <c r="E212" s="12" t="n">
+        <v>203.88</v>
+      </c>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C213" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" s="11" t="n">
+        <v>96.08</v>
+      </c>
+      <c r="E213" s="12" t="n">
+        <v>192.16</v>
+      </c>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C214" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" s="11" t="n">
+        <v>99.01</v>
+      </c>
+      <c r="E214" s="12" t="n">
+        <v>198.02</v>
+      </c>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B215" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C205" s="11" t="n">
+      <c r="C215" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D205" s="11" t="n">
+      <c r="D215" s="11" t="n">
         <v>104.87</v>
       </c>
-      <c r="E205" s="12" t="n">
+      <c r="E215" s="12" t="n">
         <v>209.74</v>
       </c>
-      <c r="F205" s="13"/>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11" t="s">
+      <c r="F215" s="13"/>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B216" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C206" s="11" t="n">
+      <c r="C216" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D206" s="11" t="n">
+      <c r="D216" s="11" t="n">
         <v>293.77</v>
       </c>
-      <c r="E206" s="12" t="n">
+      <c r="E216" s="12" t="n">
         <v>4112.78</v>
       </c>
-      <c r="F206" s="13"/>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C207" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D207" s="11" t="n">
-        <v>293.77</v>
-      </c>
-      <c r="E207" s="12" t="n">
-        <v>1762.62</v>
-      </c>
-      <c r="F207" s="13"/>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C208" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D208" s="11" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="E208" s="12" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="F208" s="13"/>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C209" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D209" s="11" t="n">
-        <v>293.77</v>
-      </c>
-      <c r="E209" s="12" t="n">
-        <v>2350.16</v>
-      </c>
-      <c r="F209" s="13"/>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C210" s="11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D210" s="11" t="n">
-        <v>317.21</v>
-      </c>
-      <c r="E210" s="12" t="n">
-        <v>12688.4</v>
-      </c>
-      <c r="F210" s="13"/>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" s="4"/>
-      <c r="C212" s="5" t="n">
-        <v>44280</v>
-      </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213" s="6"/>
-      <c r="C213" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" s="9"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
+      <c r="F216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="C217" s="11" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>390.11</v>
+        <v>293.77</v>
       </c>
       <c r="E217" s="12" t="n">
-        <v>8972.53</v>
+        <v>1762.62</v>
       </c>
       <c r="F217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="C218" s="11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>389.51</v>
+        <v>311.35</v>
       </c>
       <c r="E218" s="12" t="n">
-        <v>2337.06</v>
+        <v>622.7</v>
       </c>
       <c r="F218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C219" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D219" s="11" t="n">
+        <v>293.77</v>
+      </c>
+      <c r="E219" s="12" t="n">
+        <v>2350.16</v>
+      </c>
+      <c r="F219" s="13"/>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18" t="n">
+        <v>44280</v>
+      </c>
+      <c r="D221" s="18"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="17"/>
+      <c r="C222" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="17"/>
+      <c r="C224" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" s="17"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+    </row>
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C226" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="C219" s="11" t="n">
+      <c r="D226" s="20" t="n">
+        <v>317.21</v>
+      </c>
+      <c r="E226" s="20" t="n">
+        <v>12688.4</v>
+      </c>
+      <c r="F226" s="21"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="17"/>
+      <c r="C228" s="18" t="n">
+        <v>44280</v>
+      </c>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="17"/>
+      <c r="C229" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="17"/>
+      <c r="C230" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="17"/>
+      <c r="C231" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="19"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D219" s="11" t="n">
-        <v>390.05</v>
-      </c>
-      <c r="E219" s="12" t="n">
-        <v>5460.7</v>
-      </c>
-      <c r="F219" s="13"/>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C220" s="11" t="n">
+      <c r="B232" s="17"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C233" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D233" s="21" t="n">
+        <v>3962.3</v>
+      </c>
+      <c r="E233" s="21" t="n">
+        <v>15849.2</v>
+      </c>
+      <c r="F233" s="21"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D220" s="11" t="n">
-        <v>389.45</v>
-      </c>
-      <c r="E220" s="12" t="n">
-        <v>778.9</v>
-      </c>
-      <c r="F220" s="13"/>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="4" t="s">
+      <c r="D234" s="21" t="n">
+        <v>1524.1</v>
+      </c>
+      <c r="E234" s="21" t="n">
+        <v>3048.2</v>
+      </c>
+      <c r="F234" s="21"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B235" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C235" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="D235" s="21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E235" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="F235" s="21"/>
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="5" t="n">
+      <c r="B237" s="22"/>
+      <c r="C237" s="23" t="n">
         <v>44280</v>
       </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6" t="s">
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23"/>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="6"/>
-      <c r="C223" s="7" t="s">
+      <c r="B238" s="24"/>
+      <c r="C238" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6" t="s">
+      <c r="D238" s="25"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="25"/>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B224" s="6"/>
-      <c r="C224" s="7" t="s">
+      <c r="B239" s="24"/>
+      <c r="C239" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6" t="s">
+      <c r="D239" s="25"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="25"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="8" t="s">
+      <c r="B240" s="24"/>
+      <c r="C240" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="9" t="s">
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+      <c r="F240" s="26"/>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B226" s="9"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B227" s="14" t="s">
+      <c r="B241" s="27"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="25"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B242" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C227" s="14" t="n">
+      <c r="C242" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="D227" s="14" t="n">
-        <v>3962.3</v>
-      </c>
-      <c r="E227" s="14" t="n">
-        <v>15849.2</v>
-      </c>
-      <c r="F227" s="13"/>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="14" t="s">
+      <c r="D242" s="28" t="n">
+        <v>3962.4</v>
+      </c>
+      <c r="E242" s="28" t="n">
+        <v>15849.6</v>
+      </c>
+      <c r="F242" s="28"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B243" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C228" s="14" t="n">
+      <c r="C243" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="D228" s="14" t="n">
+      <c r="D243" s="28" t="n">
         <v>1524.1</v>
       </c>
-      <c r="E228" s="14" t="n">
+      <c r="E243" s="28" t="n">
         <v>3048.2</v>
       </c>
-      <c r="F228" s="13"/>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C229" s="14" t="n">
-        <v>96</v>
-      </c>
-      <c r="D229" s="14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E229" s="14" t="n">
-        <v>144</v>
-      </c>
-      <c r="F229" s="13"/>
-    </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="5" t="n">
-        <v>44280</v>
-      </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="6"/>
-      <c r="C232" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B234" s="6"/>
-      <c r="C234" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B235" s="9"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C236" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D236" s="14" t="n">
-        <v>3962.4</v>
-      </c>
-      <c r="E236" s="14" t="n">
-        <v>15849.6</v>
-      </c>
-      <c r="F236" s="13"/>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C237" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D237" s="14" t="n">
-        <v>1524.1</v>
-      </c>
-      <c r="E237" s="14" t="n">
-        <v>3048.2</v>
-      </c>
-      <c r="F237" s="13"/>
-    </row>
+      <c r="F243" s="28"/>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="151">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -13218,16 +13350,18 @@
     <mergeCell ref="C199:F199"/>
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="C200:F200"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:F213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:F214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:F209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="C221:F221"/>
     <mergeCell ref="A222:B222"/>
     <mergeCell ref="C222:F222"/>
     <mergeCell ref="A223:B223"/>
@@ -13236,18 +13370,26 @@
     <mergeCell ref="C224:F224"/>
     <mergeCell ref="A225:B225"/>
     <mergeCell ref="C225:F225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="C230:F230"/>
     <mergeCell ref="A231:B231"/>
     <mergeCell ref="C231:F231"/>
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="C232:F232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:F235"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:F237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:F239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:F241"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
